--- a/TestPWA/wwwroot/checklist/CIS.xlsx
+++ b/TestPWA/wwwroot/checklist/CIS.xlsx
@@ -814,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
@@ -878,6 +878,9 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="13" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1202,32 +1205,32 @@
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
-      <c r="E17" s="22" t="s">
+      <c r="E17" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="22" t="s">
+      <c r="F17" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="24"/>
       <c r="H17" s="24"/>
       <c r="I17" s="24"/>
       <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
     </row>
     <row r="18">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="31"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">

--- a/TestPWA/wwwroot/checklist/CIS.xlsx
+++ b/TestPWA/wwwroot/checklist/CIS.xlsx
@@ -12,7 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:b/>
+        <d:sz val="14"/>
+        <d:rFont val="Arial"/>
+      </d:rPr>
+      <d:t xml:space="preserve">Wartungscheckliste MUVE</d:t>
+    </d:r>
+  </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
@@ -180,6 +190,7 @@
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:b/>
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -289,6 +300,7 @@
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:b/>
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -339,6 +351,7 @@
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:b/>
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -380,6 +393,7 @@
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:b/>
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -814,36 +828,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="1" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="2" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="3" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="4" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="5" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="6" applyBorder="1" xfId="0"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="8" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -857,30 +871,30 @@
       <alignment horizontal="center" wrapText="1" textRotation="90"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="10" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="11" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="12" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="7" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="8" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="9" applyBorder="1" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" borderId="13" applyBorder="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -890,10 +904,13 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="14" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="13" applyBorder="1" xfId="0">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -903,16 +920,59 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" descr="" name="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A3:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="8" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
@@ -924,151 +984,73 @@
     <col min="11" max="11" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="5"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" ht="84" customHeight="1">
-      <c r="A3" s="14" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="18" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="14" t="s">
         <v>5</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="B8" s="17"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
-      <c r="G8" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
+      <c r="G8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="19" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="20"/>
@@ -1082,8 +1064,8 @@
       <c r="K9" s="21"/>
     </row>
     <row r="10">
-      <c r="A10" s="14" t="s">
-        <v>18</v>
+      <c r="A10" s="22" t="s">
+        <v>12</v>
       </c>
       <c r="B10" s="17"/>
       <c r="C10" s="17"/>
@@ -1091,7 +1073,7 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="23" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="H10" s="26"/>
       <c r="I10" s="26"/>
@@ -1100,7 +1082,7 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
@@ -1108,7 +1090,7 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="23" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H11" s="26"/>
       <c r="I11" s="26"/>
@@ -1117,7 +1099,7 @@
     </row>
     <row r="12">
       <c r="A12" s="22" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -1125,7 +1107,7 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" s="26"/>
       <c r="I12" s="26"/>
@@ -1133,8 +1115,8 @@
       <c r="K12" s="26"/>
     </row>
     <row r="13">
-      <c r="A13" s="22" t="s">
-        <v>22</v>
+      <c r="A13" s="14" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
@@ -1142,7 +1124,7 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="26"/>
       <c r="I13" s="26"/>
@@ -1150,25 +1132,23 @@
       <c r="K13" s="26"/>
     </row>
     <row r="14">
-      <c r="A14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
+      <c r="A14" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15">
       <c r="A15" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -1176,7 +1156,7 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="23" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H15" s="26"/>
       <c r="I15" s="26"/>
@@ -1184,57 +1164,59 @@
       <c r="K15" s="26"/>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="A16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="14" t="s">
         <v>24</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="27"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="24"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="32"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="22" t="s">
-        <v>16</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1242,7 +1224,7 @@
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
       <c r="G19" s="23" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="H19" s="26"/>
       <c r="I19" s="26"/>
@@ -1250,8 +1232,8 @@
       <c r="K19" s="26"/>
     </row>
     <row r="20">
-      <c r="A20" s="22" t="s">
-        <v>31</v>
+      <c r="A20" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
@@ -1259,7 +1241,7 @@
       <c r="E20" s="17"/>
       <c r="F20" s="17"/>
       <c r="G20" s="23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
@@ -1267,57 +1249,59 @@
       <c r="K20" s="26"/>
     </row>
     <row r="21">
-      <c r="A21" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
+      <c r="A21" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
       <c r="G21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
+        <v>25</v>
+      </c>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22">
-      <c r="A22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="32"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="14" t="s">
         <v>17</v>
-      </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="22" t="s">
-        <v>34</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
@@ -1325,7 +1309,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="17"/>
       <c r="G24" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H24" s="26"/>
       <c r="I24" s="26"/>
@@ -1333,8 +1317,8 @@
       <c r="K24" s="26"/>
     </row>
     <row r="25">
-      <c r="A25" s="22" t="s">
-        <v>35</v>
+      <c r="A25" s="14" t="s">
+        <v>32</v>
       </c>
       <c r="B25" s="17"/>
       <c r="C25" s="17"/>
@@ -1342,7 +1326,7 @@
       <c r="E25" s="17"/>
       <c r="F25" s="17"/>
       <c r="G25" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H25" s="26"/>
       <c r="I25" s="26"/>
@@ -1350,8 +1334,8 @@
       <c r="K25" s="26"/>
     </row>
     <row r="26">
-      <c r="A26" s="22" t="s">
-        <v>36</v>
+      <c r="A26" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B26" s="17"/>
       <c r="C26" s="17"/>
@@ -1359,7 +1343,7 @@
       <c r="E26" s="17"/>
       <c r="F26" s="17"/>
       <c r="G26" s="23" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
@@ -1367,8 +1351,8 @@
       <c r="K26" s="26"/>
     </row>
     <row r="27">
-      <c r="A27" s="22" t="s">
-        <v>37</v>
+      <c r="A27" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="B27" s="17"/>
       <c r="C27" s="17"/>
@@ -1376,7 +1360,7 @@
       <c r="E27" s="17"/>
       <c r="F27" s="17"/>
       <c r="G27" s="23" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="H27" s="26"/>
       <c r="I27" s="26"/>
@@ -1384,65 +1368,153 @@
       <c r="K27" s="26"/>
     </row>
     <row r="28">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="21"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="12" t="s">
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="14" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="11"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="D1:K1"/>
-    <mergeCell ref="D2:K2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A7:F7"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="D7:K7"/>
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:K9"/>
     <mergeCell ref="A10:F10"/>
     <mergeCell ref="A11:F11"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
-    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A14:K14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="G16:G18"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A23:D23"/>
     <mergeCell ref="A24:F24"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A30:K30"/>
-    <mergeCell ref="A31:K31"/>
+    <mergeCell ref="A28:K28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:K34"/>
+    <mergeCell ref="A35:K35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A3:E4"/>
   </mergeCells>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestPWA/wwwroot/checklist/CIS.xlsx
+++ b/TestPWA/wwwroot/checklist/CIS.xlsx
@@ -29,6 +29,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Datum:</d:t>
     </d:r>
   </si>
@@ -38,6 +46,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Bargeldgewerk: Münzinspektions- und Sortieranlage</d:t>
     </d:r>
   </si>
@@ -47,6 +63,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Wartungsfirma:</d:t>
     </d:r>
   </si>
@@ -56,6 +80,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Servicetechniker:</d:t>
     </d:r>
   </si>
@@ -65,6 +97,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Achtung: Arbeiten nur ausführen, wenn keine Werte vorhanden sind.</d:t>
     </d:r>
   </si>
@@ -74,6 +114,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Wartungs oder Prüfintervall</d:t>
     </d:r>
   </si>
@@ -83,6 +131,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">in Ordnung</d:t>
     </d:r>
   </si>
@@ -92,6 +148,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">nicht in Ordnung</d:t>
     </d:r>
   </si>
@@ -101,6 +165,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">erledigt</d:t>
     </d:r>
   </si>
@@ -110,6 +182,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">nicht vorhanden</d:t>
     </d:r>
   </si>
@@ -117,6 +197,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -129,6 +216,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Prüfung der Sicherheitseinrichtung, Not-Halt Taster</d:t>
     </d:r>
   </si>
@@ -138,6 +233,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">J</d:t>
     </d:r>
   </si>
@@ -147,6 +250,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Alle Transportbänder auf Beschädigungen oder Risse prüfen. Dazu die untenliegende Abdeckung mit einem Kreuzschlitzschraubenzieher lösen.</d:t>
     </d:r>
   </si>
@@ -156,6 +267,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">M</d:t>
     </d:r>
   </si>
@@ -165,6 +284,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Prüfen Sie alle bewegliche und schwingende Teile auf lose oder fehlende Schrauben.</d:t>
     </d:r>
   </si>
@@ -174,6 +301,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Überprüfen Sie die Kabel und anderen Anschlüsse auf Verfügbarkeit, Festigkeit, Dichtheit, Schäden, Abrieb der Isolierung.</d:t>
     </d:r>
   </si>
@@ -181,6 +316,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -190,8 +332,16 @@
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t xml:space="preserve">Gesamte Anlage reinigen:</d:t>
@@ -202,6 +352,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Maschineninnere staubsaugen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -210,6 +368,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-EMS staubsaugen inkl. unterhalb beider Bänder</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -218,6 +384,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Maschinenäusseres staubsaugen; u.a. beim Bunker, Z-Förder und der Sch</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -226,6 +400,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Auffangbehälter wie z.B. Grobabscheider, Abstreifer und bei Rückförderer entleeren und reinigen.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -234,6 +416,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Sortiereinheit mit einem Staubsauger oder einem weichen Tuch reinigen.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -242,6 +432,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Reinigungsstation-gross, in Reinigungsstation einspannen Spülwasser und fusselfreies Tuch verwenden</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -250,6 +448,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Reinigungsstation-klein, in Reinigungsstation einspannen Spülwasser und fusselfreies Tuch verwenden</d:t>
     </d:r>
   </si>
@@ -259,6 +465,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">W</d:t>
     </d:r>
   </si>
@@ -268,6 +482,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Festsitzende Münzen in der Maschine überprüfen</d:t>
     </d:r>
   </si>
@@ -277,6 +499,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Sichtfenster reinigen mit lauwarmes Wasser sowie ein wenig Spülmittel aus.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -285,6 +515,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Verwenden dabei ein Mikrofasertuch</d:t>
     </d:r>
   </si>
@@ -294,14 +532,30 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Not-Aus-Taster, Kontrolllampen und Anzeigen</d:t>
     </d:r>
   </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t xml:space="preserve">Transportriemen gross reinigen:</d:t>
@@ -312,6 +566,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Vereinzelung aus der Fixierung lösen und einem Tisch deponieren</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -320,6 +582,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-An der Vereinzelung prüfen, ob sich Schrauben o.ä. gelöst haben.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -328,6 +598,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Transportriemen mit Spuhlwasser und einem nicht kratzendem Reinigungsschwamm reinigen.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -336,6 +614,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Bandposition händisch drehen</d:t>
     </d:r>
   </si>
@@ -345,14 +631,30 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">6M</d:t>
     </d:r>
   </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t xml:space="preserve">Transportriemen klein reinigen:</d:t>
@@ -363,6 +665,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Sortierung aufklappen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -371,6 +681,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-An der Sortierung prüfen, ob sich Schraube gelöst haben oder starke Abnutzungen sichtbar sind.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -379,6 +697,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Transportriemen mit Spuhlwasser und einem nicht kratzendem Reinigungsschwamm reinigen.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -387,14 +713,30 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Bandposition händisch drehen</d:t>
     </d:r>
   </si>
   <si>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
+        <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
         <d:b/>
         <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t xml:space="preserve">Spannung Transporriemen gross überprüfen:</d:t>
@@ -405,6 +747,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Der Transporriemen muss so in Position gefahren werden, dass der "BGK-Schriftzug" auf die horizontale Fläche zu liegen kommt.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -413,6 +763,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Mittels schwarzem Marker sind dort zwei Markierungen angebracht.</d:t>
     </d:r>
   </si>
@@ -420,6 +778,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -430,6 +795,13 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
         <d:color rgb="FFF2F2F2"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
@@ -442,6 +814,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Die Distanz von Punkt zu Punkt sollte 102cm betragen.</d:t>
     </d:r>
   </si>
@@ -451,6 +831,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">&lt;102cm</d:t>
     </d:r>
   </si>
@@ -460,6 +848,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Alle Lichtschranken und Sensoren mit einem weichen Reinigungstuch.</d:t>
     </d:r>
   </si>
@@ -469,6 +865,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Beide Server PC-Filter überprüfen und reinigen oder austauschen</d:t>
     </d:r>
   </si>
@@ -478,6 +882,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Kühlaggregat reinigen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -486,6 +898,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Nehmen Sie vorsichtig die Abdeckung des Kühlaggregats ab.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -494,6 +914,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Reinigen Sie die Lamellen vorsichtig mit einem Staubsauger</d:t>
     </d:r>
   </si>
@@ -503,6 +931,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Schwingplatte</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -511,6 +947,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Der Talkbelag der Schwingplatte wird mit einem Spachtel gelöst.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -519,6 +963,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Anschliessend kann mit einem Reinigungstuch und Bremsreiniger der übrige Schmutz entfernt werden</d:t>
     </d:r>
   </si>
@@ -528,6 +980,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Prüfen Sie die Abscheider und Bürsten auf Verschleiß.</d:t>
     </d:r>
   </si>
@@ -537,6 +997,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Vision-Einheiten</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -545,6 +1013,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Reinigen Sie die Oberfläche der Abdeckung vorsichtig mit dem Staubsauger und  mit einem Microphasertuch</d:t>
     </d:r>
   </si>
@@ -554,6 +1030,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Vision-Linsen</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -562,6 +1046,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Reinige die Oberfläche der Linse vorsichtig mit dem Staubsauger/Druckluftpistole und mit einem Microphasertuch.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -570,6 +1062,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Bei Flecken auf der Linse, muss ein Microphasertuch mit wenig Senorreiniger angewendet werden.</d:t>
     </d:r>
   </si>
@@ -579,6 +1079,14 @@
         <d:sz val="11"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">Speicherplatz</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -587,6 +1095,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Überprüfe den Speicherplatz auf dem NAS, falls dieser überläuft können alte Daten gelöscht werden.</d:t>
     </d:r>
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
@@ -595,6 +1111,14 @@
         <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
       <d:t xml:space="preserve">-Überprüfen den Speicherplatz auf dem Lokalen Laufwerken, falls der überläuft können Logdateien gelöscht werden.</d:t>
     </d:r>
   </si>
@@ -602,6 +1126,14 @@
     <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
       <d:rPr>
         <d:sz val="11"/>
+        <d:rFont val="Calibri"/>
+      </d:rPr>
+      <d:t xml:space="preserve"> </d:t>
+    </d:r>
+    <d:r xmlns:d="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+      <d:rPr>
+        <d:sz val="11"/>
+        <d:color rgb="FF000000"/>
         <d:rFont val="Calibri"/>
       </d:rPr>
       <d:t xml:space="preserve">Bemerkungen:</d:t>
